--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425220.0497470249</v>
+        <v>292217.6213404669</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1115626.196768436</v>
+        <v>1031014.869386101</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23388816.12081983</v>
+        <v>23327009.85576314</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5190610.067752501</v>
+        <v>5216940.860481801</v>
       </c>
     </row>
     <row r="11">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3.224589128737031</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="J12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
     </row>
     <row r="13">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1730,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="S15" t="n">
-        <v>13.18456318129113</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="T15" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.55924250423409</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>45.55924250423409</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>17.42191669726539</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="F20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.95092127527398</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45.55924250423408</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45.35754004913034</v>
+        <v>45.55924250423409</v>
       </c>
       <c r="C21" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.42191669726541</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="Y21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
     </row>
     <row r="22">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>11.90074236257971</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>75.70608231735559</v>
+        <v>66.68191730512679</v>
       </c>
       <c r="H23" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684216</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.20822947306053</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>66.68191730512683</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="W24" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.68191730512679</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>74.17977014942188</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.20822947306053</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>66.68191730512686</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>75.70608231735564</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="G27" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>66.68191730512686</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>66.68191730512683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>66.68191730512683</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>75.70608231735559</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.68191730512683</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,70 +2873,70 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="D30" t="n">
-        <v>66.68191730512683</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.15291272711818</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>22.5290045780086</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>75.70608231735559</v>
-      </c>
-      <c r="G30" t="n">
-        <v>75.70608231735559</v>
-      </c>
-      <c r="H30" t="n">
-        <v>75.70608231735559</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>75.70608231735559</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>75.70608231735559</v>
       </c>
-      <c r="G32" t="n">
+      <c r="W32" t="n">
         <v>75.70608231735559</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>66.68191730512677</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>66.68191730512676</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.15291272711818</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>22.5290045780086</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>75.70608231735559</v>
+        <v>44.15291272711818</v>
       </c>
       <c r="W33" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684216</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.98844034993355</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.3226211903828</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V36" t="n">
-        <v>63.94484694639286</v>
+        <v>37.22756549475388</v>
       </c>
       <c r="W36" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>63.94484694639286</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="V38" t="n">
-        <v>56.3226211903828</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,22 +3626,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.94484694639286</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V39" t="n">
-        <v>33.79361661237424</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="40">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>39.95092127527399</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>29.55626309639997</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="D42" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>29.55626309639998</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>39.95092127527398</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="F44" t="n">
-        <v>29.55626309639998</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>22.5290045780086</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="V45" t="n">
-        <v>7.027258518391378</v>
+        <v>17.42191669726539</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>33.55615701226154</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G11" t="n">
-        <v>46.5576598728333</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H11" t="n">
-        <v>31.43760925162217</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I11" t="n">
-        <v>16.31755863041105</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304894</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M11" t="n">
-        <v>16.28259082596021</v>
+        <v>60.23206520878293</v>
       </c>
       <c r="N11" t="n">
-        <v>31.10175243980923</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365825</v>
+        <v>103.0009800184834</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="R11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="T11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="U11" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="V11" t="n">
-        <v>59.87540045999605</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="W11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.87540045999605</v>
+        <v>35.13047875773111</v>
       </c>
       <c r="C12" t="n">
-        <v>44.75534983878492</v>
+        <v>35.13047875773111</v>
       </c>
       <c r="D12" t="n">
-        <v>31.43760925162217</v>
+        <v>35.13047875773111</v>
       </c>
       <c r="E12" t="n">
-        <v>31.43760925162217</v>
+        <v>35.13047875773111</v>
       </c>
       <c r="F12" t="n">
-        <v>31.43760925162217</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G12" t="n">
-        <v>31.43760925162217</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162217</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041105</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844898</v>
+        <v>16.55951693774548</v>
       </c>
       <c r="M12" t="n">
-        <v>30.237077232298</v>
+        <v>45.50599487788873</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614702</v>
+        <v>74.45247281803199</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999605</v>
+        <v>103.3989507581752</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="R12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999605</v>
+        <v>35.13047875773111</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C14" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D14" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E14" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F14" t="n">
-        <v>59.87540045999605</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G14" t="n">
-        <v>44.75534983878492</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H14" t="n">
-        <v>29.6352992175738</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>14.51524859636267</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K14" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L14" t="n">
-        <v>15.41791561844898</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M14" t="n">
-        <v>30.237077232298</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N14" t="n">
-        <v>45.05623884614702</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T14" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U14" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V14" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="W14" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X14" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K15" t="n">
-        <v>1.197508009199921</v>
+        <v>15.89562499514238</v>
       </c>
       <c r="L15" t="n">
-        <v>15.41791561844898</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M15" t="n">
-        <v>30.237077232298</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N15" t="n">
-        <v>45.05623884614702</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O15" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P15" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.75534983878492</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R15" t="n">
-        <v>29.6352992175738</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S15" t="n">
-        <v>16.31755863041105</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="T15" t="n">
-        <v>1.197508009199921</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="U15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="C17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="D17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="E17" t="n">
-        <v>3.628603203930427</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="F17" t="n">
-        <v>3.628603203930427</v>
+        <v>50.15742438470161</v>
       </c>
       <c r="G17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="L17" t="n">
-        <v>48.53256785256946</v>
+        <v>39.32210280728747</v>
       </c>
       <c r="M17" t="n">
-        <v>93.43653250120849</v>
+        <v>90.52969826504378</v>
       </c>
       <c r="N17" t="n">
-        <v>138.3404971498475</v>
+        <v>141.7372937228001</v>
       </c>
       <c r="O17" t="n">
-        <v>167.4756737901835</v>
+        <v>192.9448891805564</v>
       </c>
       <c r="P17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="R17" t="n">
-        <v>95.25999724257757</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="S17" t="n">
-        <v>49.444300223254</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="T17" t="n">
-        <v>3.628603203930427</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="U17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="V17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="W17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.444300223254</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="C18" t="n">
-        <v>49.444300223254</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="D18" t="n">
-        <v>49.444300223254</v>
+        <v>56.3853045791354</v>
       </c>
       <c r="E18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="F18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="G18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J18" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K18" t="n">
-        <v>31.89429715218322</v>
+        <v>32.40368145999067</v>
       </c>
       <c r="L18" t="n">
-        <v>46.71826625060424</v>
+        <v>59.58022002274254</v>
       </c>
       <c r="M18" t="n">
-        <v>91.62223089924328</v>
+        <v>104.4841846713816</v>
       </c>
       <c r="N18" t="n">
-        <v>136.5261955478823</v>
+        <v>155.6917801291379</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="P18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6735899157046</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="R18" t="n">
-        <v>112.857892896381</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="S18" t="n">
-        <v>112.857892896381</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="T18" t="n">
-        <v>67.04219587705742</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="U18" t="n">
-        <v>67.04219587705742</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="V18" t="n">
-        <v>67.04219587705742</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="W18" t="n">
-        <v>49.444300223254</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X18" t="n">
-        <v>49.444300223254</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.444300223254</v>
+        <v>102.4047414520991</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="C19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="D19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="E19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="F19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="G19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="L19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="M19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="N19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="O19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="P19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="R19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="S19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="T19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="U19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="V19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="W19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="X19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.79876615787418</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="C20" t="n">
-        <v>89.79876615787418</v>
+        <v>108.6326216465329</v>
       </c>
       <c r="D20" t="n">
-        <v>89.79876615787418</v>
+        <v>56.3853045791354</v>
       </c>
       <c r="E20" t="n">
-        <v>89.79876615787418</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="F20" t="n">
-        <v>43.98306913855061</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="G20" t="n">
-        <v>43.98306913855061</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H20" t="n">
-        <v>43.98306913855061</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I20" t="n">
-        <v>43.98306913855061</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="L20" t="n">
-        <v>48.53256785256946</v>
+        <v>55.34558296949419</v>
       </c>
       <c r="M20" t="n">
-        <v>93.43653250120849</v>
+        <v>106.5531784272505</v>
       </c>
       <c r="N20" t="n">
-        <v>138.3404971498475</v>
+        <v>155.6917801291379</v>
       </c>
       <c r="O20" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="P20" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="R20" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="S20" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="U20" t="n">
-        <v>135.6144631771978</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="V20" t="n">
-        <v>135.6144631771978</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="W20" t="n">
-        <v>135.6144631771978</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="X20" t="n">
-        <v>135.6144631771978</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.79876615787418</v>
+        <v>160.8799387139304</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="C21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="D21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="E21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="F21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="G21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K21" t="n">
-        <v>31.89429715218322</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="L21" t="n">
-        <v>46.71826625060424</v>
+        <v>55.34558296949419</v>
       </c>
       <c r="M21" t="n">
-        <v>91.62223089924328</v>
+        <v>104.4841846713816</v>
       </c>
       <c r="N21" t="n">
-        <v>136.5261955478823</v>
+        <v>155.6917801291379</v>
       </c>
       <c r="O21" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="P21" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6735899157046</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="R21" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="S21" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="T21" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="U21" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="V21" t="n">
-        <v>141.0756942619011</v>
+        <v>206.8993755868942</v>
       </c>
       <c r="W21" t="n">
-        <v>141.0756942619011</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X21" t="n">
-        <v>141.0756942619011</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="Y21" t="n">
-        <v>95.25999724257757</v>
+        <v>50.15742438470161</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="C22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="D22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="E22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="F22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="G22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="H22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="I22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="J22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="K22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="L22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="M22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="N22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="O22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="P22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="R22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="S22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="T22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="U22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="V22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="W22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="X22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737883</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="C23" t="n">
-        <v>221.9061759000888</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="D23" t="n">
-        <v>221.9061759000888</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="E23" t="n">
-        <v>221.9061759000888</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="F23" t="n">
-        <v>221.9061759000888</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="G23" t="n">
-        <v>145.4353856805377</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="H23" t="n">
-        <v>68.9645954609866</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="I23" t="n">
-        <v>68.9645954609866</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="J23" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="K23" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388445</v>
       </c>
       <c r="L23" t="n">
         <v>64.0227783805384</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9717998747205</v>
+        <v>138.9717998747204</v>
       </c>
       <c r="N23" t="n">
-        <v>213.9208213689025</v>
+        <v>213.9208213689024</v>
       </c>
       <c r="O23" t="n">
-        <v>288.8698428630846</v>
+        <v>288.8698428630844</v>
       </c>
       <c r="P23" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.9271277814825</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="R23" t="n">
-        <v>233.9271277814825</v>
+        <v>226.3535390498712</v>
       </c>
       <c r="S23" t="n">
-        <v>233.9271277814825</v>
+        <v>149.8827488303201</v>
       </c>
       <c r="T23" t="n">
-        <v>233.9271277814825</v>
+        <v>149.8827488303201</v>
       </c>
       <c r="U23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="V23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="W23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="X23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.9271277814825</v>
+        <v>73.41195861076903</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="C24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="D24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="E24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="F24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="G24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="H24" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="I24" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="J24" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="K24" t="n">
         <v>34.32218053364124</v>
       </c>
       <c r="L24" t="n">
-        <v>109.2712020278233</v>
+        <v>48.5425881428903</v>
       </c>
       <c r="M24" t="n">
-        <v>160.7102256089883</v>
+        <v>93.44655279152933</v>
       </c>
       <c r="N24" t="n">
+        <v>160.6116349577814</v>
+      </c>
+      <c r="O24" t="n">
         <v>227.8753077752403</v>
       </c>
-      <c r="O24" t="n">
-        <v>302.8243292694224</v>
-      </c>
       <c r="P24" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="R24" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="S24" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="T24" t="n">
-        <v>302.8243292694224</v>
+        <v>226.3535390498712</v>
       </c>
       <c r="U24" t="n">
-        <v>302.8243292694224</v>
+        <v>226.3535390498712</v>
       </c>
       <c r="V24" t="n">
-        <v>235.4688572440417</v>
+        <v>149.8827488303201</v>
       </c>
       <c r="W24" t="n">
-        <v>158.9980670244906</v>
+        <v>73.41195861076903</v>
       </c>
       <c r="X24" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388446</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="C25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="D25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="E25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="F25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="G25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="I25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="J25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="K25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="L25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="M25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="N25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="O25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="P25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="R25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="S25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="T25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="U25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="V25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="W25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="X25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.98554734238024</v>
+        <v>82.5272768049396</v>
       </c>
       <c r="C26" t="n">
-        <v>80.98554734238024</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="D26" t="n">
-        <v>80.98554734238024</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="E26" t="n">
-        <v>80.98554734238024</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="F26" t="n">
-        <v>80.98554734238024</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="G26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="H26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="I26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="J26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="K26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388512</v>
       </c>
       <c r="L26" t="n">
-        <v>64.0227783805384</v>
+        <v>64.02277838053848</v>
       </c>
       <c r="M26" t="n">
         <v>138.9717998747205</v>
       </c>
       <c r="N26" t="n">
-        <v>213.9208213689025</v>
+        <v>213.9208213689026</v>
       </c>
       <c r="O26" t="n">
-        <v>288.8698428630846</v>
+        <v>288.8698428630847</v>
       </c>
       <c r="P26" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.9271277814825</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="R26" t="n">
-        <v>157.4563375619313</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="S26" t="n">
-        <v>157.4563375619313</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="T26" t="n">
-        <v>157.4563375619313</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="U26" t="n">
-        <v>157.4563375619313</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="V26" t="n">
-        <v>80.98554734238024</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="W26" t="n">
-        <v>80.98554734238024</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="X26" t="n">
-        <v>80.98554734238024</v>
+        <v>235.4688572440419</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.98554734238024</v>
+        <v>158.9980670244908</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>235.4688572440417</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="C27" t="n">
-        <v>235.4688572440417</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="D27" t="n">
-        <v>158.9980670244906</v>
+        <v>82.5272768049396</v>
       </c>
       <c r="E27" t="n">
-        <v>158.9980670244906</v>
+        <v>82.5272768049396</v>
       </c>
       <c r="F27" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="G27" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="H27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="I27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="J27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="K27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="L27" t="n">
-        <v>81.00550807957048</v>
+        <v>81.00550807957053</v>
       </c>
       <c r="M27" t="n">
-        <v>125.9094727282095</v>
+        <v>155.9545295737526</v>
       </c>
       <c r="N27" t="n">
-        <v>193.0745548944616</v>
+        <v>227.8753077752405</v>
       </c>
       <c r="O27" t="n">
-        <v>227.8753077752403</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="P27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="Q27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="R27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="S27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="T27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694225</v>
       </c>
       <c r="U27" t="n">
-        <v>302.8243292694224</v>
+        <v>226.3535390498714</v>
       </c>
       <c r="V27" t="n">
-        <v>302.8243292694224</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="W27" t="n">
-        <v>302.8243292694224</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="X27" t="n">
-        <v>302.8243292694224</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="Y27" t="n">
-        <v>235.4688572440417</v>
+        <v>158.9980670244908</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="C28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="D28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="E28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="F28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="G28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="I28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="J28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="K28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="L28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="M28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="N28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="O28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="P28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="R28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="S28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="T28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="U28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="V28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="W28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="X28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388451</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>302.8243292694224</v>
+      </c>
+      <c r="C29" t="n">
+        <v>302.8243292694224</v>
+      </c>
+      <c r="D29" t="n">
+        <v>235.4688572440417</v>
+      </c>
+      <c r="E29" t="n">
+        <v>235.4688572440417</v>
+      </c>
+      <c r="F29" t="n">
+        <v>158.9980670244906</v>
+      </c>
+      <c r="G29" t="n">
         <v>82.52727680493955</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
         <v>82.52727680493955</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6.056486585388448</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6.056486585388448</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6.056486585388448</v>
-      </c>
-      <c r="G29" t="n">
-        <v>6.056486585388448</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6.056486585388448</v>
       </c>
       <c r="I29" t="n">
         <v>6.056486585388448</v>
@@ -6466,10 +6466,10 @@
         <v>6.056486585388448</v>
       </c>
       <c r="K29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388438</v>
       </c>
       <c r="L29" t="n">
-        <v>64.0227783805384</v>
+        <v>64.02277838053843</v>
       </c>
       <c r="M29" t="n">
         <v>138.9717998747205</v>
@@ -6484,31 +6484,31 @@
         <v>302.8243292694224</v>
       </c>
       <c r="Q29" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="R29" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="S29" t="n">
-        <v>158.9980670244906</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="T29" t="n">
-        <v>158.9980670244906</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="U29" t="n">
-        <v>158.9980670244906</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="V29" t="n">
-        <v>158.9980670244906</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="W29" t="n">
-        <v>158.9980670244906</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="X29" t="n">
-        <v>82.52727680493955</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.52727680493955</v>
+        <v>302.8243292694224</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>302.8243292694224</v>
+        <v>203.5969687690545</v>
       </c>
       <c r="C30" t="n">
-        <v>302.8243292694224</v>
+        <v>127.1261785495034</v>
       </c>
       <c r="D30" t="n">
-        <v>235.4688572440417</v>
+        <v>127.1261785495034</v>
       </c>
       <c r="E30" t="n">
-        <v>235.4688572440417</v>
+        <v>50.65538832995227</v>
       </c>
       <c r="F30" t="n">
-        <v>158.9980670244906</v>
+        <v>50.65538832995227</v>
       </c>
       <c r="G30" t="n">
-        <v>82.52727680493955</v>
+        <v>50.65538832995227</v>
       </c>
       <c r="H30" t="n">
         <v>6.056486585388448</v>
@@ -6551,43 +6551,43 @@
         <v>20.2768941946375</v>
       </c>
       <c r="M30" t="n">
-        <v>77.97726478687628</v>
+        <v>95.22591568881954</v>
       </c>
       <c r="N30" t="n">
-        <v>152.9262862810583</v>
+        <v>162.3909978550716</v>
       </c>
       <c r="O30" t="n">
-        <v>227.8753077752403</v>
+        <v>237.3400193492537</v>
       </c>
       <c r="P30" t="n">
         <v>302.8243292694224</v>
       </c>
       <c r="Q30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="R30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="S30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="T30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="U30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="V30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="W30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="X30" t="n">
-        <v>302.8243292694224</v>
+        <v>203.5969687690545</v>
       </c>
       <c r="Y30" t="n">
-        <v>302.8243292694224</v>
+        <v>203.5969687690545</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="C31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="D31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="F31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="M31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="N31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="O31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="P31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Q31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="R31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="S31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="T31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="U31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="V31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="W31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="X31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Y31" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>235.4688572440417</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="C32" t="n">
-        <v>235.4688572440417</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="D32" t="n">
-        <v>235.4688572440417</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="E32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="F32" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G32" t="n">
         <v>6.056486585388448</v>
@@ -6721,31 +6721,31 @@
         <v>302.8243292694223</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="R32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="S32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="T32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694223</v>
       </c>
       <c r="U32" t="n">
-        <v>235.4688572440417</v>
+        <v>226.3535390498712</v>
       </c>
       <c r="V32" t="n">
-        <v>235.4688572440417</v>
+        <v>149.8827488303201</v>
       </c>
       <c r="W32" t="n">
-        <v>235.4688572440417</v>
+        <v>73.41195861076901</v>
       </c>
       <c r="X32" t="n">
-        <v>235.4688572440417</v>
+        <v>73.41195861076901</v>
       </c>
       <c r="Y32" t="n">
-        <v>235.4688572440417</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="33">
@@ -6803,28 +6803,28 @@
         <v>280.0677589886056</v>
       </c>
       <c r="R33" t="n">
-        <v>280.0677589886056</v>
+        <v>203.5969687690545</v>
       </c>
       <c r="S33" t="n">
-        <v>280.0677589886056</v>
+        <v>127.1261785495034</v>
       </c>
       <c r="T33" t="n">
-        <v>280.0677589886056</v>
+        <v>50.65538832995227</v>
       </c>
       <c r="U33" t="n">
-        <v>280.0677589886056</v>
+        <v>50.65538832995227</v>
       </c>
       <c r="V33" t="n">
-        <v>203.5969687690545</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="W33" t="n">
-        <v>127.1261785495034</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="X33" t="n">
-        <v>50.65538832995227</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.65538832995227</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="C34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="D34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="E34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="F34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="M34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="N34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="O34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="P34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Q34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="R34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="S34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="T34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="U34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="V34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="W34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="X34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.02369663130958</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I35" t="n">
-        <v>68.02369663130958</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J35" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K35" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L35" t="n">
-        <v>63.08187955086139</v>
+        <v>63.39377318232184</v>
       </c>
       <c r="M35" t="n">
-        <v>126.3872780277903</v>
+        <v>130.5588553485739</v>
       </c>
       <c r="N35" t="n">
-        <v>178.5195029023047</v>
+        <v>190.2545007860044</v>
       </c>
       <c r="O35" t="n">
-        <v>241.8249013792337</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P35" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q35" t="n">
-        <v>197.2052056139214</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R35" t="n">
-        <v>132.6144511226155</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S35" t="n">
-        <v>132.6144511226155</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T35" t="n">
-        <v>132.6144511226155</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U35" t="n">
-        <v>132.6144511226155</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V35" t="n">
-        <v>132.6144511226155</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W35" t="n">
-        <v>132.6144511226155</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X35" t="n">
-        <v>132.6144511226155</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.02369663130958</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>126.5978788029596</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="C36" t="n">
-        <v>69.70634224701736</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="D36" t="n">
-        <v>69.70634224701736</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E36" t="n">
-        <v>69.70634224701736</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F36" t="n">
-        <v>69.70634224701736</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G36" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H36" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I36" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J36" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K36" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L36" t="n">
-        <v>68.42098623264036</v>
+        <v>19.64788899642094</v>
       </c>
       <c r="M36" t="n">
-        <v>129.1685908317136</v>
+        <v>86.81297116267302</v>
       </c>
       <c r="N36" t="n">
-        <v>192.4739893086425</v>
+        <v>153.9780533289251</v>
       </c>
       <c r="O36" t="n">
-        <v>255.7793877855715</v>
+        <v>221.1431354951772</v>
       </c>
       <c r="P36" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q36" t="n">
-        <v>255.7793877855715</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R36" t="n">
-        <v>255.7793877855715</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="S36" t="n">
-        <v>255.7793877855715</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="T36" t="n">
-        <v>255.7793877855715</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="U36" t="n">
-        <v>255.7793877855715</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="V36" t="n">
-        <v>191.1886332942655</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W36" t="n">
-        <v>126.5978788029596</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X36" t="n">
-        <v>126.5978788029596</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y36" t="n">
-        <v>126.5978788029596</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y37" t="n">
-        <v>255.7793877855715</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L38" t="n">
-        <v>51.90870594844687</v>
+        <v>55.92433645350019</v>
       </c>
       <c r="M38" t="n">
-        <v>115.2141044253758</v>
+        <v>123.0894186197523</v>
       </c>
       <c r="N38" t="n">
-        <v>178.5195029023047</v>
+        <v>190.2545007860044</v>
       </c>
       <c r="O38" t="n">
-        <v>241.8249013792337</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P38" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q38" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R38" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S38" t="n">
-        <v>191.1886332942655</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T38" t="n">
-        <v>126.5978788029596</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U38" t="n">
-        <v>62.00712431165366</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V38" t="n">
-        <v>5.115587755711429</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W38" t="n">
-        <v>5.115587755711429</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X38" t="n">
-        <v>5.115587755711429</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.70634224701736</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C39" t="n">
-        <v>5.115587755711429</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D39" t="n">
-        <v>5.115587755711429</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E39" t="n">
-        <v>5.115587755711429</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F39" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G39" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H39" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I39" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J39" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K39" t="n">
-        <v>5.115587755711429</v>
+        <v>33.69317533542468</v>
       </c>
       <c r="L39" t="n">
-        <v>68.42098623264036</v>
+        <v>47.91358294467373</v>
       </c>
       <c r="M39" t="n">
-        <v>129.1685908317136</v>
+        <v>92.81754759331277</v>
       </c>
       <c r="N39" t="n">
-        <v>192.4739893086425</v>
+        <v>159.9826297595649</v>
       </c>
       <c r="O39" t="n">
-        <v>255.7793877855715</v>
+        <v>227.147711925817</v>
       </c>
       <c r="P39" t="n">
-        <v>255.7793877855715</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0228175047547</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R39" t="n">
-        <v>233.0228175047547</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S39" t="n">
-        <v>168.4320630134488</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T39" t="n">
-        <v>168.4320630134488</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U39" t="n">
-        <v>168.4320630134488</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V39" t="n">
-        <v>134.2970967383233</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W39" t="n">
-        <v>134.2970967383233</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X39" t="n">
-        <v>134.2970967383233</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.70634224701736</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.115587755711429</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.684492560980924</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="C41" t="n">
-        <v>2.684492560980924</v>
+        <v>95.25999724257757</v>
       </c>
       <c r="D41" t="n">
-        <v>2.684492560980924</v>
+        <v>95.25999724257757</v>
       </c>
       <c r="E41" t="n">
-        <v>2.684492560980924</v>
+        <v>49.444300223254</v>
       </c>
       <c r="F41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K41" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L41" t="n">
-        <v>20.60835531629158</v>
+        <v>32.76377984426645</v>
       </c>
       <c r="M41" t="n">
-        <v>53.82895075843051</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N41" t="n">
-        <v>87.04954620056944</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O41" t="n">
-        <v>120.2701416427084</v>
+        <v>167.4756737901835</v>
       </c>
       <c r="P41" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Q41" t="n">
-        <v>104.3698168405614</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="R41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="S41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="T41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="U41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="V41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="W41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="X41" t="n">
-        <v>70.47470874736788</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.5796006541744</v>
+        <v>135.6144631771978</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.5796006541744</v>
+        <v>141.0756942619011</v>
       </c>
       <c r="C42" t="n">
-        <v>36.5796006541744</v>
+        <v>95.25999724257757</v>
       </c>
       <c r="D42" t="n">
-        <v>2.684492560980924</v>
+        <v>49.444300223254</v>
       </c>
       <c r="E42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="F42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K42" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L42" t="n">
-        <v>35.90508800311985</v>
+        <v>46.71826625060424</v>
       </c>
       <c r="M42" t="n">
-        <v>69.12568344525877</v>
+        <v>91.62223089924328</v>
       </c>
       <c r="N42" t="n">
-        <v>102.3462788873977</v>
+        <v>136.5261955478823</v>
       </c>
       <c r="O42" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="P42" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="R42" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="S42" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="T42" t="n">
-        <v>100.3295199558527</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="U42" t="n">
-        <v>66.43441186265923</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="V42" t="n">
-        <v>36.5796006541744</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="W42" t="n">
-        <v>36.5796006541744</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="X42" t="n">
-        <v>36.5796006541744</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.5796006541744</v>
+        <v>181.4301601965213</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="C43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="D43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="E43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="F43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="M43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="N43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="O43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="P43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="R43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="S43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="T43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="U43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="V43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="W43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="X43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66.43441186265923</v>
+        <v>89.79876615787418</v>
       </c>
       <c r="C44" t="n">
-        <v>66.43441186265923</v>
+        <v>89.79876615787418</v>
       </c>
       <c r="D44" t="n">
-        <v>66.43441186265923</v>
+        <v>49.444300223254</v>
       </c>
       <c r="E44" t="n">
-        <v>66.43441186265923</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="F44" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G44" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H44" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I44" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J44" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K44" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L44" t="n">
-        <v>20.60835531629158</v>
+        <v>32.76377984426645</v>
       </c>
       <c r="M44" t="n">
-        <v>53.82895075843051</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N44" t="n">
-        <v>87.04954620056944</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O44" t="n">
-        <v>120.2701416427084</v>
+        <v>167.4756737901835</v>
       </c>
       <c r="P44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="R44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="S44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="T44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="U44" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="V44" t="n">
-        <v>100.3295199558527</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="W44" t="n">
-        <v>66.43441186265923</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="X44" t="n">
-        <v>66.43441186265923</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="Y44" t="n">
-        <v>66.43441186265923</v>
+        <v>89.79876615787418</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>70.47470874736788</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="C45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="D45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="E45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="F45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H45" t="n">
-        <v>36.5796006541744</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I45" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J45" t="n">
-        <v>2.684492560980924</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K45" t="n">
-        <v>24.61655161537604</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L45" t="n">
-        <v>38.83695922462509</v>
+        <v>46.71826625060424</v>
       </c>
       <c r="M45" t="n">
-        <v>72.05755466676402</v>
+        <v>91.62223089924328</v>
       </c>
       <c r="N45" t="n">
-        <v>105.2781501089029</v>
+        <v>136.5261955478823</v>
       </c>
       <c r="O45" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="P45" t="n">
-        <v>134.2246280490462</v>
+        <v>181.4301601965213</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.4680577682294</v>
+        <v>158.6735899157046</v>
       </c>
       <c r="R45" t="n">
-        <v>111.4680577682294</v>
+        <v>112.857892896381</v>
       </c>
       <c r="S45" t="n">
-        <v>111.4680577682294</v>
+        <v>112.857892896381</v>
       </c>
       <c r="T45" t="n">
-        <v>111.4680577682294</v>
+        <v>67.04219587705742</v>
       </c>
       <c r="U45" t="n">
-        <v>111.4680577682294</v>
+        <v>21.22649885773385</v>
       </c>
       <c r="V45" t="n">
-        <v>104.3698168405614</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="W45" t="n">
-        <v>104.3698168405614</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="X45" t="n">
-        <v>70.47470874736788</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="Y45" t="n">
-        <v>70.47470874736788</v>
+        <v>3.628603203930427</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="C46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="D46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="E46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="F46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="G46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="H46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="I46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="J46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="K46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="L46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="M46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="N46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="O46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="R46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="T46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="U46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="V46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="W46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="X46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.2246280490462</v>
+        <v>3.628603203930427</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>116.8735187081364</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
         <v>111.9488011414238</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232906</v>
+        <v>106.8026410616736</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167111</v>
+        <v>101.7149661658628</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.87181201565983</v>
+        <v>50.41291927855414</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104772</v>
+        <v>30.23412553798346</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.748834705535131</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239171</v>
+        <v>41.74297661872396</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228356</v>
+        <v>62.06263035810403</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402524</v>
+        <v>79.27897249523153</v>
       </c>
       <c r="M11" t="n">
-        <v>9.163470549147016</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N11" t="n">
-        <v>17.19178828862402</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O11" t="n">
-        <v>36.7677253491625</v>
+        <v>35.76093267816073</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>18.78689346858733</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>64.40415397917678</v>
+        <v>79.27897249523147</v>
       </c>
       <c r="M14" t="n">
-        <v>23.86371338847806</v>
+        <v>36.95236153195891</v>
       </c>
       <c r="N14" t="n">
-        <v>17.19178828862402</v>
+        <v>31.46180477983029</v>
       </c>
       <c r="O14" t="n">
-        <v>36.7677253491625</v>
+        <v>51.03774184036877</v>
       </c>
       <c r="P14" t="n">
-        <v>69.57222331010286</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493429</v>
+        <v>53.90320578326352</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>95.39764593815656</v>
+        <v>85.57961628857126</v>
       </c>
       <c r="M17" t="n">
-        <v>54.25240332260941</v>
+        <v>60.61970717020262</v>
       </c>
       <c r="N17" t="n">
-        <v>47.58047822275537</v>
+        <v>53.94778207034858</v>
       </c>
       <c r="O17" t="n">
-        <v>51.22834658803829</v>
+        <v>73.52371913088706</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9248,7 +9248,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6096580698706795</v>
+        <v>13.08700096313415</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.11867344292506</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>95.39764593815656</v>
+        <v>101.7649497857498</v>
       </c>
       <c r="M20" t="n">
-        <v>54.25240332260941</v>
+        <v>60.61970717020262</v>
       </c>
       <c r="N20" t="n">
-        <v>47.58047822275537</v>
+        <v>51.8578893876527</v>
       </c>
       <c r="O20" t="n">
-        <v>65.32378740252091</v>
+        <v>73.52371913088706</v>
       </c>
       <c r="P20" t="n">
         <v>69.57222331010286</v>
@@ -9482,19 +9482,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6096580698706795</v>
+        <v>37.36079580657298</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.277411164897323</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.11867344292506</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>84.60094559083467</v>
+        <v>84.60094559083461</v>
       </c>
       <c r="N23" t="n">
-        <v>77.92902049098063</v>
+        <v>77.92902049098058</v>
       </c>
       <c r="O23" t="n">
-        <v>97.50495755151911</v>
+        <v>97.50495755151906</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9722,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>61.34203422720503</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>6.601069628814081</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.46721571115029</v>
+        <v>38.70423724981377</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>80.7995256176136</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9886,10 +9886,10 @@
         <v>84.60094559083473</v>
       </c>
       <c r="N26" t="n">
-        <v>77.92902049098063</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O26" t="n">
-        <v>97.50495755151911</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9959,19 +9959,19 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L27" t="n">
-        <v>61.34203422720503</v>
+        <v>61.34203422720508</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>30.3485422682253</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.803733368925009</v>
       </c>
       <c r="O27" t="n">
-        <v>5.913409030944983</v>
+        <v>46.46721571115035</v>
       </c>
       <c r="P27" t="n">
-        <v>80.79952561761365</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,7 +10120,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>84.60094559083473</v>
+        <v>84.60094559083467</v>
       </c>
       <c r="N29" t="n">
         <v>77.92902049098063</v>
@@ -10199,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>12.92566256929266</v>
+        <v>30.34854226822526</v>
       </c>
       <c r="N30" t="n">
-        <v>7.862564977707052</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.46721571115029</v>
+        <v>46.46721571115032</v>
       </c>
       <c r="P30" t="n">
-        <v>80.79952561761365</v>
+        <v>71.23921089638806</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10594,13 +10594,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>72.83971021987193</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N35" t="n">
-        <v>54.88175117818505</v>
+        <v>62.52156992860529</v>
       </c>
       <c r="O35" t="n">
-        <v>85.7437221805564</v>
+        <v>89.64239257381212</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10670,19 +10670,19 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L36" t="n">
-        <v>49.5807988562423</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.00367671761031</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>34.70598034018758</v>
+        <v>38.60465073344329</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>55.83176033401269</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10828,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>97.30588184128425</v>
+        <v>101.0470301984488</v>
       </c>
       <c r="M38" t="n">
-        <v>72.83971021987196</v>
+        <v>76.73838061312767</v>
       </c>
       <c r="N38" t="n">
-        <v>66.16778512001792</v>
+        <v>70.06645551327364</v>
       </c>
       <c r="O38" t="n">
-        <v>85.7437221805564</v>
+        <v>89.64239257381212</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,22 +10904,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>49.5807988562423</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>16.00367671761031</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>34.70598034018758</v>
+        <v>38.60465073344329</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>49.76653161619475</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>68.14501776307739</v>
+        <v>79.469577242901</v>
       </c>
       <c r="M41" t="n">
-        <v>42.45102028574064</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N41" t="n">
-        <v>35.7790951858866</v>
+        <v>47.5804782227554</v>
       </c>
       <c r="O41" t="n">
-        <v>55.35503224642508</v>
+        <v>67.15641528329388</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,7 +11144,7 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L42" t="n">
-        <v>19.19210892211098</v>
+        <v>29.16086407820683</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2.961486082328534</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>68.14501776307739</v>
+        <v>79.469577242901</v>
       </c>
       <c r="M44" t="n">
-        <v>42.45102028574064</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N44" t="n">
-        <v>35.7790951858866</v>
+        <v>47.5804782227554</v>
       </c>
       <c r="O44" t="n">
-        <v>55.35503224642508</v>
+        <v>67.15641528329388</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>62.3633506193738</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.16086407820683</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.180569077725</v>
+        <v>422.2799129738437</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>350.6772306225874</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>257.1144787449909</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>109.6037108507806</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840931</v>
+        <v>70.92743225431252</v>
       </c>
       <c r="L8" t="n">
-        <v>13.7627297632223</v>
+        <v>29.43994164996676</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>16.73832887716185</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985101</v>
+        <v>66.08657754158358</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343943</v>
+        <v>128.4215859963776</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>215.8989072651621</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>237.5310928142745</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>219.7785224684532</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>248.7967808487065</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0681189810912</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>138.2636984700766</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>118.7808315368448</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>86.47996647705006</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262881</v>
+        <v>19.62359669065587</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552915</v>
+        <v>60.61139743325113</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>157.6923741114839</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>209.009783189855</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>230.3095373220754</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6530513549813</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2789429537837</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>167.973816967188</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>169.0756193216474</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>135.4307965393792</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719798</v>
+        <v>92.64156330930624</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081538</v>
+        <v>67.64163421384343</v>
       </c>
       <c r="M10" t="n">
-        <v>57.64716518774021</v>
+        <v>64.63250070728971</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511906</v>
+        <v>52.12429523900624</v>
       </c>
       <c r="O10" t="n">
-        <v>70.7260729557852</v>
+        <v>77.02474468680391</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621556</v>
+        <v>95.23868023126785</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692978</v>
+        <v>155.3700667873846</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>223.057103218009</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>244.4685908073183</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>218.2770376930819</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>291.222010617111</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5377606314286</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>329.9979705112285</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31017767184315</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.20822947306053</v>
+        <v>38.96936286685522</v>
       </c>
       <c r="R11" t="n">
         <v>180.8732471227138</v>
@@ -23314,13 +23314,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>284.0655753948178</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>299.6381317725478</v>
       </c>
       <c r="X11" t="n">
         <v>348.8168793035129</v>
@@ -23339,16 +23339,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>188.8735775002404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D12" t="n">
-        <v>158.9143791982211</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>170.7597589965869</v>
       </c>
       <c r="G12" t="n">
         <v>160.7697824785144</v>
@@ -23357,10 +23357,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>93.5403079778637</v>
+        <v>79.27029148665741</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570487</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>139.169341083075</v>
@@ -23396,7 +23396,7 @@
         <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>220.0610585739671</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
@@ -23405,7 +23405,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>213.657399807388</v>
       </c>
     </row>
     <row r="13">
@@ -23500,7 +23500,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>289.8928890370423</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>406.7534736977208</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>329.9979705112285</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>49.09446460555104</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R14" t="n">
         <v>180.8732471227138</v>
@@ -23551,13 +23551,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>284.0655753948178</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>299.6381317725478</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
@@ -23597,7 +23597,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.560154463009583</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R15" t="n">
-        <v>124.2004909680759</v>
+        <v>109.9304744768696</v>
       </c>
       <c r="S15" t="n">
-        <v>190.283750322543</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T15" t="n">
-        <v>214.1381817427427</v>
+        <v>199.8681652515365</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>223.8798302467504</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23679,22 +23679,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N16" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q16" t="n">
         <v>134.42632090912</v>
@@ -23740,13 +23740,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>308.2337110395638</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>347.4215736766455</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7223238127198</v>
+        <v>376.1630813084857</v>
       </c>
       <c r="H17" t="n">
         <v>344.9668206262274</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.25730819778652</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R17" t="n">
-        <v>135.5157070735835</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4674897560336</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T17" t="n">
-        <v>171.9801358665031</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>197.027329819093</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23816,10 +23816,10 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>126.5396998752781</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>135.7357014008793</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
@@ -23834,7 +23834,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>12.93616940157355</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,16 +23855,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R18" t="n">
-        <v>93.81180103394462</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>183.7494918086114</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
         <v>249.633423953496</v>
@@ -23873,10 +23873,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>265.8273400656657</v>
+        <v>231.5244128662076</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>178.3082198142394</v>
       </c>
       <c r="Y18" t="n">
         <v>242.8962664135933</v>
@@ -23971,16 +23971,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5971194742085</v>
+        <v>281.8722755774849</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>267.4069117465241</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>308.2337110395638</v>
       </c>
       <c r="F20" t="n">
-        <v>353.7888775242387</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
         <v>421.7223238127198</v>
@@ -23992,7 +23992,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J20" t="n">
-        <v>22.32810651156818</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.85068942393019</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24025,7 +24025,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>203.1929312115825</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.6552173319041</v>
+        <v>142.4535148768003</v>
       </c>
       <c r="C21" t="n">
-        <v>158.4848875661091</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
         <v>172.0989423795122</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>121.7474243858095</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S21" t="n">
         <v>203.4683135038341</v>
@@ -24110,13 +24110,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>231.5244128662076</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>178.3082198142394</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.538726364463</v>
+        <v>191.1714225168698</v>
       </c>
     </row>
     <row r="22">
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>321.6963771116287</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>346.0162414953642</v>
+        <v>355.040406507593</v>
       </c>
       <c r="H23" t="n">
-        <v>269.2607383088719</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053582</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878084</v>
       </c>
       <c r="T23" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>173.046091398461</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24302,7 +24302,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>59.67631361467662</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
         <v>108.5091580928627</v>
@@ -24338,22 +24338,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403862</v>
       </c>
       <c r="U24" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V24" t="n">
-        <v>182.6180078750455</v>
+        <v>173.5938428628168</v>
       </c>
       <c r="W24" t="n">
         <v>207.5431744455755</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>163.3511464058362</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.1901840962377</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>288.8502452797075</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568528</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24457,7 +24457,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>347.5425536632979</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R26" t="n">
-        <v>105.1671648053582</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
         <v>224.8250298051639</v>
@@ -24502,16 +24502,16 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
-        <v>237.5983596836675</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>282.1349619983861</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>302.2228940778265</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>96.39286006215661</v>
+        <v>96.39286006215657</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>98.27826580796828</v>
       </c>
       <c r="G27" t="n">
-        <v>85.06370016115883</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H27" t="n">
-        <v>59.67631361467662</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I27" t="n">
         <v>108.5091580928627</v>
@@ -24578,10 +24578,10 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361404</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>182.6180078750455</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24590,7 +24590,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.2143491084665</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24685,22 +24685,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>243.425673325892</v>
+        <v>252.4498383381208</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560134</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7223238127198</v>
+        <v>346.0162414953642</v>
       </c>
       <c r="H29" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
-        <v>235.6180226107624</v>
+        <v>159.9119402934068</v>
       </c>
       <c r="J29" t="n">
         <v>62.27902778684216</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.526312167933696</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R29" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>149.1189474878083</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
         <v>217.3376759156334</v>
@@ -24745,7 +24745,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>273.1107969861573</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24761,22 +24761,22 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8424276152394</v>
+        <v>128.1363452978838</v>
       </c>
       <c r="D30" t="n">
-        <v>105.4170250743854</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>187.4605452976028</v>
+        <v>111.7544629802472</v>
       </c>
       <c r="F30" t="n">
-        <v>98.27826580796832</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>85.06370016115883</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>59.67631361467662</v>
+        <v>91.22948320491403</v>
       </c>
       <c r="I30" t="n">
         <v>108.5091580928627</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>139.169341083075</v>
@@ -24824,7 +24824,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>154.3269813936074</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2524726189317</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4403352560134</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>346.0162414953642</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
         <v>344.9668206262274</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.526312167933753</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R32" t="n">
         <v>180.8732471227138</v>
@@ -24973,19 +24973,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>173.046091398461</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836675</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>249.6856431619378</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>311.2470590900554</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>143.8598446539163</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>139.169341083075</v>
+        <v>63.46325876571936</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864785</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403862</v>
       </c>
       <c r="U33" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
-        <v>173.5938428628168</v>
+        <v>205.1470124530542</v>
       </c>
       <c r="W33" t="n">
-        <v>207.5431744455755</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>154.3269813936074</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>296.7128102574146</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>265.7536021345599</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25177,7 +25177,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.21978912312698</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R35" t="n">
-        <v>116.9284001763209</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
@@ -25210,7 +25210,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>188.9956036430542</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.9841294487892</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>147.5198064248566</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25247,7 +25247,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>96.82493553212157</v>
+        <v>92.92626513886586</v>
       </c>
       <c r="H36" t="n">
         <v>135.3823959320322</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>139.169341083075</v>
@@ -25289,13 +25289,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V36" t="n">
-        <v>185.3550782337795</v>
+        <v>212.0723596854185</v>
       </c>
       <c r="W36" t="n">
-        <v>219.3044098165383</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25441,25 +25441,25 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>160.8801828587711</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>153.3928289692406</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U38" t="n">
-        <v>184.8073267694237</v>
+        <v>188.9956036430542</v>
       </c>
       <c r="V38" t="n">
-        <v>256.9818208106403</v>
+        <v>245.4609246613745</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>280.9733619638644</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.9289763951821</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>139.8975806688465</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>112.3423723067498</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>106.1408307856753</v>
       </c>
       <c r="G39" t="n">
         <v>160.7697824785144</v>
@@ -25514,22 +25514,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R39" t="n">
         <v>139.169341083075</v>
       </c>
       <c r="S39" t="n">
-        <v>139.5234665574413</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V39" t="n">
-        <v>215.5063085677982</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
         <v>283.2492567629311</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.9514194672005</v>
+        <v>175.0527490739448</v>
       </c>
     </row>
     <row r="40">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.0001705848016</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>333.5971194742085</v>
+        <v>293.6461981989345</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>359.9585549362873</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G41" t="n">
         <v>421.7223238127198</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.65196637666055</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
-        <v>147.3170901104523</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S41" t="n">
         <v>224.8250298051639</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.3728193829206</v>
+        <v>332.5714363460518</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.0127573810344</v>
+        <v>148.0618361057604</v>
       </c>
       <c r="C42" t="n">
-        <v>203.8424276152394</v>
+        <v>158.4848875661091</v>
       </c>
       <c r="D42" t="n">
-        <v>138.5427853672507</v>
+        <v>126.7414023303819</v>
       </c>
       <c r="E42" t="n">
-        <v>187.4605452976028</v>
+        <v>142.1030052484725</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
@@ -25760,13 +25760,13 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T42" t="n">
-        <v>195.5508748454802</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>216.0772669412345</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
-        <v>219.7436620837724</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
         <v>283.2492567629311</v>
@@ -25870,13 +25870,13 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1317556432476</v>
+        <v>279.1808343679737</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F44" t="n">
-        <v>369.5901544769691</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
         <v>421.7223238127198</v>
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>28.72287077458062</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V44" t="n">
-        <v>279.7482849887616</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
-        <v>291.8355684670318</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>303.4593392543826</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>332.5714363460518</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
-        <v>170.2862706029779</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
         <v>172.0989423795122</v>
@@ -25964,7 +25964,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
-        <v>74.95300108060118</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
         <v>58.29370945070389</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>93.81180103394462</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1070318577418</v>
+        <v>183.7494918086114</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V45" t="n">
-        <v>242.272666661781</v>
+        <v>231.878008482907</v>
       </c>
       <c r="W45" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
-        <v>196.4769066987014</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>397471.1946090342</v>
+        <v>385181.1997444511</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>445579.8338457624</v>
+        <v>455462.5104504052</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>445579.8338457622</v>
+        <v>455462.510450405</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466727.9861694645</v>
+        <v>471218.6441502679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466727.9861694644</v>
+        <v>471218.6441502679</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488181.8589005551</v>
+        <v>488181.8589005552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488181.8589005551</v>
+        <v>488181.8589005553</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488181.8589005552</v>
+        <v>488181.8589005551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>479837.0257343639</v>
+        <v>482586.6346324241</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>479837.0257343638</v>
+        <v>482586.634632424</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458479.900833911</v>
+        <v>466727.9861694644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458479.9008339111</v>
+        <v>466727.9861694644</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>108443.9781842341</v>
       </c>
       <c r="D2" t="n">
-        <v>114555.1214767689</v>
+        <v>110680.7592658844</v>
       </c>
       <c r="E2" t="n">
-        <v>130005.6467763576</v>
+        <v>132708.1458803124</v>
       </c>
       <c r="F2" t="n">
-        <v>130005.6467763576</v>
+        <v>132708.1458803123</v>
       </c>
       <c r="G2" t="n">
-        <v>135760.7492577008</v>
+        <v>136966.6086169617</v>
       </c>
       <c r="H2" t="n">
-        <v>135760.7492577008</v>
+        <v>136966.6086169617</v>
       </c>
       <c r="I2" t="n">
         <v>141508.2484520258</v>
@@ -26346,16 +26346,16 @@
         <v>141508.2484520258</v>
       </c>
       <c r="M2" t="n">
-        <v>139280.8699433173</v>
+        <v>140019.2119943501</v>
       </c>
       <c r="N2" t="n">
-        <v>139280.8699433173</v>
+        <v>140019.21199435</v>
       </c>
       <c r="O2" t="n">
-        <v>133525.7674619741</v>
+        <v>135760.7492577008</v>
       </c>
       <c r="P2" t="n">
-        <v>133525.7674619741</v>
+        <v>135760.7492577008</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33381.84090058045</v>
+        <v>12218.31441725349</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408455</v>
+        <v>120162.3225111329</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8329.084080596384</v>
+        <v>6163.069085671691</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8070.314708508728</v>
+        <v>6377.114902052888</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>799.3504246728178</v>
+        <v>5327.059871028287</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>12102.3694127353</v>
       </c>
       <c r="D4" t="n">
-        <v>10847.6596249392</v>
+        <v>11633.63722209123</v>
       </c>
       <c r="E4" t="n">
-        <v>6821.622495069259</v>
+        <v>7593.704764299171</v>
       </c>
       <c r="F4" t="n">
-        <v>6821.622495069258</v>
+        <v>7593.704764299167</v>
       </c>
       <c r="G4" t="n">
-        <v>8568.323773138181</v>
+        <v>8993.820203393807</v>
       </c>
       <c r="H4" t="n">
-        <v>8568.323773138181</v>
+        <v>8993.820203393807</v>
       </c>
       <c r="I4" t="n">
         <v>10646.37746104012</v>
@@ -26450,16 +26450,16 @@
         <v>10646.37746104012</v>
       </c>
       <c r="M4" t="n">
-        <v>9810.42449930982</v>
+        <v>10070.95397532982</v>
       </c>
       <c r="N4" t="n">
-        <v>9810.42449930982</v>
+        <v>10070.95397532982</v>
       </c>
       <c r="O4" t="n">
-        <v>7854.750644490236</v>
+        <v>8568.323773138183</v>
       </c>
       <c r="P4" t="n">
-        <v>7854.750644490235</v>
+        <v>8568.323773138183</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>40733.07596291874</v>
       </c>
       <c r="E5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
-        <v>12886.88102139041</v>
+        <v>13274.01309532408</v>
       </c>
       <c r="H5" t="n">
-        <v>12886.88102139041</v>
+        <v>13274.01309532408</v>
       </c>
       <c r="I5" t="n">
-        <v>14732.07239129851</v>
+        <v>14732.0723912985</v>
       </c>
       <c r="J5" t="n">
         <v>14732.07239129851</v>
@@ -26502,16 +26502,16 @@
         <v>14732.07239129851</v>
       </c>
       <c r="M5" t="n">
-        <v>14016.98928074397</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="N5" t="n">
-        <v>14016.98928074397</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="O5" t="n">
-        <v>12169.35693274879</v>
+        <v>12886.88102139041</v>
       </c>
       <c r="P5" t="n">
-        <v>12169.35693274879</v>
+        <v>12886.88102139041</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244412.058091649</v>
+        <v>-261454.4457795644</v>
       </c>
       <c r="C6" t="n">
-        <v>55919.54973998955</v>
+        <v>38877.16205207412</v>
       </c>
       <c r="D6" t="n">
-        <v>29053.82787565308</v>
+        <v>29193.14279330871</v>
       </c>
       <c r="E6" t="n">
-        <v>16096.69564380855</v>
+        <v>-22480.62427809079</v>
       </c>
       <c r="F6" t="n">
-        <v>112144.7756078931</v>
+        <v>97681.69823304209</v>
       </c>
       <c r="G6" t="n">
-        <v>105976.4603825758</v>
+        <v>93275.98294670219</v>
       </c>
       <c r="H6" t="n">
-        <v>114305.5444631722</v>
+        <v>99439.05203237387</v>
       </c>
       <c r="I6" t="n">
-        <v>108059.4838911784</v>
+        <v>94776.81290145595</v>
       </c>
       <c r="J6" t="n">
-        <v>116129.7985996872</v>
+        <v>101153.9278035088</v>
       </c>
       <c r="K6" t="n">
-        <v>116129.7985996872</v>
+        <v>101153.9278035088</v>
       </c>
       <c r="L6" t="n">
-        <v>116129.7985996872</v>
+        <v>101153.9278035088</v>
       </c>
       <c r="M6" t="n">
-        <v>114654.1057385906</v>
+        <v>95298.23413255491</v>
       </c>
       <c r="N6" t="n">
-        <v>115453.4561632635</v>
+        <v>100625.2940035832</v>
       </c>
       <c r="O6" t="n">
-        <v>113501.6598847351</v>
+        <v>98970.45496734849</v>
       </c>
       <c r="P6" t="n">
-        <v>113501.6598847351</v>
+        <v>98970.45496734849</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>325.9392643540704</v>
       </c>
       <c r="E3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="G3" t="n">
         <v>464.639568183637</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="H4" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="I4" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="J4" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="K4" t="n">
         <v>75.70608231735559</v>
@@ -26822,16 +26822,16 @@
         <v>75.70608231735559</v>
       </c>
       <c r="M4" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N4" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O4" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="P4" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.9786258755467</v>
+        <v>14.2668317160316</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>138.7003038295667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30.38868993413132</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.34854226822526</v>
+        <v>23.98123842063202</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.207614744036282</v>
+        <v>21.37630162849828</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.38868993413132</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537026</v>
+        <v>1.310308600418373</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015982</v>
+        <v>13.41919795403466</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274375</v>
+        <v>50.51567231762936</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779595</v>
+        <v>111.210804574759</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>166.6761676304687</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>206.7765244605225</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>230.0787250332127</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883431</v>
+        <v>233.8016393441515</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>220.7722581987412</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>188.4240146259126</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>141.4985878734296</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559406</v>
+        <v>82.30867262103067</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>29.85865723203369</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590836</v>
+        <v>5.735875898331429</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1048246880334698</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7010769082332836</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291656</v>
+        <v>6.770926982147766</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312874</v>
+        <v>24.13795495452314</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>66.2363933344437</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>113.2085461860737</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>152.2228611495119</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>177.6368990729684</v>
       </c>
       <c r="N9" t="n">
-        <v>192.087253921875</v>
+        <v>182.3384192163398</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>166.804030881276</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411744</v>
+        <v>133.874940485354</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395656</v>
+        <v>89.49185235623459</v>
       </c>
       <c r="R9" t="n">
-        <v>46.8284564558332</v>
+        <v>43.52826628487003</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>13.0221960805612</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>2.825831923975383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04612348080482131</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.5877593291630777</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234211</v>
+        <v>5.225714762922641</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>17.67552600792238</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147794</v>
+        <v>41.55458457182959</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760035</v>
+        <v>68.2869475154921</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969145</v>
+        <v>87.3837824466634</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917629</v>
+        <v>92.1339464796268</v>
       </c>
       <c r="N10" t="n">
-        <v>96.7624470157244</v>
+        <v>89.94320716183722</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490541</v>
+        <v>83.07710954388669</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401213</v>
+        <v>71.08681922895984</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555142</v>
+        <v>49.21682891746463</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>26.42779674582347</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>10.24304212732381</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.511335315514968</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03205959977253155</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259508</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N12" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O12" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P12" t="n">
         <v>190.8441275431999</v>
@@ -31992,7 +31992,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I14" t="n">
         <v>72.01212845185798</v>
@@ -32004,22 +32004,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M14" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O14" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R14" t="n">
         <v>117.334332763479</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H15" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K15" t="n">
         <v>161.3833488850657</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>222.8398747259508</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N15" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O15" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -32101,16 +32101,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S15" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H16" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I16" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L16" t="n">
         <v>124.569106525823</v>
@@ -32177,10 +32177,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S16" t="n">
         <v>14.60186970832839</v>
@@ -32189,7 +32189,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>237.4447939710053</v>
+        <v>243.8120978185985</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32563,7 +32563,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>237.4447939710053</v>
+        <v>243.8120978185985</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>256.0321008682678</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>256.0321008682678</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>241.4271816232134</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N42" t="n">
-        <v>225.6434109341365</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>241.4271816232134</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N45" t="n">
-        <v>225.6434109341365</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2686072756679411</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O11" t="n">
-        <v>14.96885011499901</v>
+        <v>13.96205744399721</v>
       </c>
       <c r="P11" t="n">
         <v>14.09544081448263</v>
@@ -35497,16 +35497,16 @@
         <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>13.69345016832927</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.36404809015056</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M14" t="n">
-        <v>14.96885011499901</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="N14" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O14" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="L15" t="n">
-        <v>14.36404809015056</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M15" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N15" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O15" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>45.35754004913034</v>
+        <v>35.53951039954504</v>
       </c>
       <c r="M17" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="N17" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="O17" t="n">
-        <v>29.42947135387477</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448263</v>
@@ -35968,16 +35968,16 @@
         <v>28.55120600833615</v>
       </c>
       <c r="L18" t="n">
-        <v>14.97370616002124</v>
+        <v>27.45104905328471</v>
       </c>
       <c r="M18" t="n">
         <v>45.35754004913034</v>
       </c>
       <c r="N18" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="O18" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="M20" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="N20" t="n">
-        <v>45.35754004913034</v>
+        <v>49.63495121402766</v>
       </c>
       <c r="O20" t="n">
-        <v>43.5249121683574</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.55120600833615</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14.97370616002124</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="M21" t="n">
-        <v>45.35754004913034</v>
+        <v>49.63495121402766</v>
       </c>
       <c r="N21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="O21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672354</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409087</v>
       </c>
       <c r="M23" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="N23" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="O23" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448263</v>
@@ -36442,19 +36442,19 @@
         <v>28.55120600833615</v>
       </c>
       <c r="L24" t="n">
-        <v>75.70608231735559</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M24" t="n">
-        <v>51.95860967794442</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>75.70608231735559</v>
+        <v>67.94310385601905</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>75.70608231735557</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>58.55180989409087</v>
       </c>
       <c r="M26" t="n">
-        <v>75.70608231735565</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="N26" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="O26" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448263</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="M27" t="n">
-        <v>45.35754004913034</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="N27" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857358</v>
       </c>
       <c r="O27" t="n">
-        <v>35.15227563715026</v>
+        <v>75.70608231735564</v>
       </c>
       <c r="P27" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>58.55180989409087</v>
       </c>
       <c r="M29" t="n">
-        <v>75.70608231735565</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="N29" t="n">
         <v>75.70608231735559</v>
@@ -36919,16 +36919,16 @@
         <v>14.36404809015056</v>
       </c>
       <c r="M30" t="n">
-        <v>58.283202618423</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="N30" t="n">
-        <v>75.70608231735559</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
         <v>75.70608231735559</v>
       </c>
       <c r="P30" t="n">
-        <v>75.70608231735559</v>
+        <v>66.14576759613</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>58.55180989409087</v>
       </c>
       <c r="M35" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N35" t="n">
-        <v>52.65881300456001</v>
+        <v>60.29863175498025</v>
       </c>
       <c r="O35" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448263</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>63.94484694639286</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M36" t="n">
-        <v>61.36121676674065</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N36" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>50.73831703375463</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.26577595225802</v>
+        <v>51.00692430942253</v>
       </c>
       <c r="M38" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N38" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O38" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448263</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L39" t="n">
-        <v>63.94484694639286</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M39" t="n">
-        <v>61.36121676674065</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N39" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>63.94484694639286</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>44.67308831593669</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>18.10491187405117</v>
+        <v>29.42947135387477</v>
       </c>
       <c r="M41" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N41" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="O41" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448263</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>33.55615701226154</v>
+        <v>43.5249121683574</v>
       </c>
       <c r="M42" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N42" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="O42" t="n">
-        <v>32.20035268853381</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>18.10491187405117</v>
+        <v>29.42947135387477</v>
       </c>
       <c r="M44" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N44" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="O44" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448263</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.15359500443951</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14.36404809015056</v>
+        <v>43.5249121683574</v>
       </c>
       <c r="M45" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N45" t="n">
-        <v>33.55615701226154</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="O45" t="n">
-        <v>29.23886660620528</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
